--- a/Project Management/Project Schedule.xlsx
+++ b/Project Management/Project Schedule.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Edwin/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Edwin/ANLY482/ANLY482/Project Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -472,8 +472,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -509,24 +521,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -534,9 +528,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -554,15 +545,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -571,12 +553,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -594,15 +570,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -610,8 +577,53 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -622,6 +634,12 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -632,6 +650,12 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -909,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z46"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A2" zoomScale="82" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Z40"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" zoomScale="82" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -925,40 +949,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="30"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
+      <c r="A1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
     </row>
     <row r="2" spans="1:26" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -1012,336 +1036,336 @@
       <c r="U2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
     </row>
     <row r="3" spans="1:26" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="22" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
-      <c r="B4" s="18">
+      <c r="A4" s="18"/>
+      <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
+      <c r="E4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
-      <c r="B5" s="25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="15">
         <v>2</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
+      <c r="E5" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
     </row>
     <row r="6" spans="1:26" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="39" t="s">
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
-      <c r="B7" s="18">
+      <c r="A7" s="18"/>
+      <c r="B7" s="11">
         <v>3</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
-      <c r="B8" s="12">
+      <c r="A8" s="18"/>
+      <c r="B8" s="6">
         <v>4</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
       <c r="U8" s="3"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
     </row>
     <row r="9" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
-      <c r="B9" s="27" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="15" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="X9" s="30" t="s">
+      <c r="X9" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
     </row>
     <row r="10" spans="1:26" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="30"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
     </row>
     <row r="11" spans="1:26" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
-      <c r="B11" s="18">
+      <c r="A11" s="18"/>
+      <c r="B11" s="11">
         <v>5</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="40" t="s">
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="X11" s="30" t="s">
+      <c r="X11" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="30"/>
-      <c r="B12" s="12">
+      <c r="A12" s="18"/>
+      <c r="B12" s="6">
         <v>6</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="22" t="s">
         <v>45</v>
       </c>
       <c r="H12" s="3"/>
@@ -1358,27 +1382,27 @@
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="30"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
-      <c r="B13" s="12">
+      <c r="A13" s="18"/>
+      <c r="B13" s="6">
         <v>7</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="23" t="s">
         <v>45</v>
       </c>
       <c r="I13" s="3"/>
@@ -1394,35 +1418,35 @@
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
-      <c r="V13" s="30"/>
+      <c r="V13" s="18"/>
       <c r="W13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="X13" s="30" t="s">
+      <c r="X13" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="30"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
-      <c r="B14" s="12">
+      <c r="A14" s="18"/>
+      <c r="B14" s="6">
         <v>8</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="37"/>
-      <c r="J14" s="38"/>
+      <c r="H14" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="32"/>
+      <c r="J14" s="28"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -1434,32 +1458,32 @@
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
-      <c r="B15" s="12">
+      <c r="A15" s="18"/>
+      <c r="B15" s="6">
         <v>9</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="K15" s="38"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="28"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -1470,25 +1494,25 @@
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="X15" s="30" t="s">
+      <c r="V15" s="18"/>
+      <c r="W15" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="X15" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="30"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
-      <c r="B16" s="12">
+      <c r="A16" s="18"/>
+      <c r="B16" s="6">
         <v>10</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="3"/>
@@ -1497,10 +1521,10 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="L16" s="38"/>
+      <c r="K16" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="L16" s="28"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -1510,225 +1534,225 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="18"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
-      <c r="B17" s="25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="15">
         <v>11</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="L17" s="38"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="30"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="28"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="18"/>
     </row>
     <row r="18" spans="1:26" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="28" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
-      <c r="B19" s="18">
+      <c r="A19" s="18"/>
+      <c r="B19" s="11">
         <v>12</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="L19" s="38"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="30"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" s="28"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
-      <c r="B20" s="25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="15">
         <v>13</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="L20" s="38"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="30"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" s="28"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
     </row>
     <row r="21" spans="1:26" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="30"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
-      <c r="B22" s="18">
+      <c r="A22" s="18"/>
+      <c r="B22" s="11">
         <v>14</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="M22" s="38"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="30"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="M22" s="28"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
-      <c r="B23" s="12">
+      <c r="A23" s="18"/>
+      <c r="B23" s="6">
         <v>15</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="3"/>
@@ -1738,10 +1762,10 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="M23" s="38"/>
+      <c r="L23" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="M23" s="28"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -1750,123 +1774,123 @@
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="30"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
+      <c r="Z23" s="18"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
-      <c r="B24" s="25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="15">
         <v>16</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="M24" s="38"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="30"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="M24" s="28"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="18"/>
     </row>
     <row r="25" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="30"/>
-      <c r="B25" s="10" t="s">
+      <c r="A25" s="18"/>
+      <c r="B25" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="30"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="18"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="30"/>
-      <c r="B26" s="18">
+      <c r="A26" s="18"/>
+      <c r="B26" s="11">
         <v>17</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="O26" s="38"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="30"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="O26" s="28"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="18"/>
+      <c r="Y26" s="18"/>
+      <c r="Z26" s="18"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" s="30"/>
-      <c r="B27" s="12">
+      <c r="A27" s="18"/>
+      <c r="B27" s="6">
         <v>18</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E27" s="3"/>
@@ -1879,30 +1903,30 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
-      <c r="O27" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="P27" s="38"/>
+      <c r="O27" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="P27" s="28"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="30"/>
-      <c r="Y27" s="30"/>
-      <c r="Z27" s="30"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="18"/>
+      <c r="Y27" s="18"/>
+      <c r="Z27" s="18"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28" s="30"/>
-      <c r="B28" s="12">
+      <c r="A28" s="18"/>
+      <c r="B28" s="6">
         <v>19</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E28" s="3"/>
@@ -1916,7 +1940,7 @@
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
-      <c r="P28" s="35" t="s">
+      <c r="P28" s="23" t="s">
         <v>45</v>
       </c>
       <c r="Q28" s="3"/>
@@ -1924,123 +1948,123 @@
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="30"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="18"/>
+      <c r="Y28" s="18"/>
+      <c r="Z28" s="18"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29" s="30"/>
-      <c r="B29" s="25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="15">
         <v>20</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="30"/>
-      <c r="Y29" s="30"/>
-      <c r="Z29" s="30"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
+      <c r="X29" s="18"/>
+      <c r="Y29" s="18"/>
+      <c r="Z29" s="18"/>
     </row>
     <row r="30" spans="1:26" ht="19" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="28" t="s">
+      <c r="A30" s="18"/>
+      <c r="B30" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="30"/>
-      <c r="Y30" s="30"/>
-      <c r="Z30" s="30"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="18"/>
+      <c r="W30" s="18"/>
+      <c r="X30" s="18"/>
+      <c r="Y30" s="18"/>
+      <c r="Z30" s="18"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31" s="30"/>
-      <c r="B31" s="18">
+      <c r="A31" s="18"/>
+      <c r="B31" s="11">
         <v>21</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="30"/>
-      <c r="W31" s="30"/>
-      <c r="X31" s="30"/>
-      <c r="Y31" s="30"/>
-      <c r="Z31" s="30"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="18"/>
+      <c r="W31" s="18"/>
+      <c r="X31" s="18"/>
+      <c r="Y31" s="18"/>
+      <c r="Z31" s="18"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A32" s="30"/>
-      <c r="B32" s="12">
+      <c r="A32" s="18"/>
+      <c r="B32" s="6">
         <v>22</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E32" s="3"/>
@@ -2056,93 +2080,93 @@
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
-      <c r="R32" s="35" t="s">
+      <c r="R32" s="23" t="s">
         <v>45</v>
       </c>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
-      <c r="V32" s="30"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="30"/>
-      <c r="Y32" s="30"/>
-      <c r="Z32" s="30"/>
+      <c r="V32" s="18"/>
+      <c r="W32" s="18"/>
+      <c r="X32" s="18"/>
+      <c r="Y32" s="18"/>
+      <c r="Z32" s="18"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A33" s="30"/>
-      <c r="B33" s="25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="15">
         <v>23</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
-      <c r="X33" s="30"/>
-      <c r="Y33" s="30"/>
-      <c r="Z33" s="30"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="18"/>
+      <c r="W33" s="18"/>
+      <c r="X33" s="18"/>
+      <c r="Y33" s="18"/>
+      <c r="Z33" s="18"/>
     </row>
     <row r="34" spans="1:26" ht="19" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="28" t="s">
+      <c r="A34" s="18"/>
+      <c r="B34" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="30"/>
-      <c r="W34" s="30"/>
-      <c r="X34" s="30"/>
-      <c r="Y34" s="30"/>
-      <c r="Z34" s="30"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="18"/>
+      <c r="W34" s="18"/>
+      <c r="X34" s="18"/>
+      <c r="Y34" s="18"/>
+      <c r="Z34" s="18"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A35" s="30"/>
-      <c r="B35" s="12">
+      <c r="A35" s="18"/>
+      <c r="B35" s="6">
         <v>24</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E35" s="3"/>
@@ -2159,30 +2183,30 @@
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
-      <c r="S35" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="T35" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="U35" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="V35" s="30"/>
-      <c r="W35" s="30"/>
-      <c r="X35" s="30"/>
-      <c r="Y35" s="30"/>
-      <c r="Z35" s="30"/>
+      <c r="S35" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="T35" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="U35" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="V35" s="18"/>
+      <c r="W35" s="18"/>
+      <c r="X35" s="18"/>
+      <c r="Y35" s="18"/>
+      <c r="Z35" s="18"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A36" s="30"/>
-      <c r="B36" s="12">
+      <c r="A36" s="18"/>
+      <c r="B36" s="6">
         <v>25</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E36" s="3"/>
@@ -2199,30 +2223,30 @@
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
-      <c r="S36" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="T36" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="U36" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="V36" s="30"/>
-      <c r="W36" s="30"/>
-      <c r="X36" s="30"/>
-      <c r="Y36" s="30"/>
-      <c r="Z36" s="30"/>
+      <c r="S36" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="T36" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="U36" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="V36" s="18"/>
+      <c r="W36" s="18"/>
+      <c r="X36" s="18"/>
+      <c r="Y36" s="18"/>
+      <c r="Z36" s="18"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A37" s="30"/>
-      <c r="B37" s="12">
+      <c r="A37" s="18"/>
+      <c r="B37" s="6">
         <v>26</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E37" s="3"/>
@@ -2239,30 +2263,30 @@
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
-      <c r="S37" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="T37" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="U37" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="V37" s="30"/>
-      <c r="W37" s="30"/>
-      <c r="X37" s="30"/>
-      <c r="Y37" s="30"/>
-      <c r="Z37" s="30"/>
+      <c r="S37" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="T37" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="U37" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="V37" s="18"/>
+      <c r="W37" s="18"/>
+      <c r="X37" s="18"/>
+      <c r="Y37" s="18"/>
+      <c r="Z37" s="18"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A38" s="30"/>
-      <c r="B38" s="12">
+      <c r="A38" s="18"/>
+      <c r="B38" s="6">
         <v>27</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E38" s="3"/>
@@ -2279,30 +2303,30 @@
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
-      <c r="S38" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="T38" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="U38" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="V38" s="30"/>
-      <c r="W38" s="30"/>
-      <c r="X38" s="30"/>
-      <c r="Y38" s="30"/>
-      <c r="Z38" s="30"/>
+      <c r="S38" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="T38" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="U38" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="V38" s="18"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="18"/>
+      <c r="Y38" s="18"/>
+      <c r="Z38" s="18"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A39" s="30"/>
-      <c r="B39" s="12">
+      <c r="A39" s="18"/>
+      <c r="B39" s="6">
         <v>28</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E39" s="3"/>
@@ -2319,220 +2343,236 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-      <c r="S39" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="T39" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="U39" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="V39" s="30"/>
-      <c r="W39" s="30"/>
-      <c r="X39" s="30"/>
-      <c r="Y39" s="30"/>
-      <c r="Z39" s="30"/>
+      <c r="S39" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="T39" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="U39" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="V39" s="18"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18"/>
+      <c r="Y39" s="18"/>
+      <c r="Z39" s="18"/>
     </row>
     <row r="40" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="30"/>
-      <c r="B40" s="10" t="s">
+      <c r="A40" s="18"/>
+      <c r="B40" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="7"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="8"/>
-      <c r="V40" s="30"/>
-      <c r="W40" s="30"/>
-      <c r="X40" s="30"/>
-      <c r="Y40" s="30"/>
-      <c r="Z40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="30"/>
+      <c r="R40" s="30"/>
+      <c r="S40" s="30"/>
+      <c r="T40" s="30"/>
+      <c r="U40" s="31"/>
+      <c r="V40" s="18"/>
+      <c r="W40" s="18"/>
+      <c r="X40" s="18"/>
+      <c r="Y40" s="18"/>
+      <c r="Z40" s="18"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A41" s="30"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="32"/>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="32"/>
-      <c r="R41" s="32"/>
-      <c r="S41" s="32"/>
-      <c r="T41" s="32"/>
-      <c r="U41" s="32"/>
-      <c r="V41" s="30"/>
-      <c r="W41" s="30"/>
-      <c r="X41" s="30"/>
-      <c r="Y41" s="30"/>
-      <c r="Z41" s="30"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="18"/>
+      <c r="W41" s="18"/>
+      <c r="X41" s="18"/>
+      <c r="Y41" s="18"/>
+      <c r="Z41" s="18"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A42" s="30"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="32"/>
-      <c r="P42" s="32"/>
-      <c r="Q42" s="32"/>
-      <c r="R42" s="32"/>
-      <c r="S42" s="32"/>
-      <c r="T42" s="32"/>
-      <c r="U42" s="32"/>
-      <c r="V42" s="30"/>
-      <c r="W42" s="30"/>
-      <c r="X42" s="30"/>
-      <c r="Y42" s="30"/>
-      <c r="Z42" s="30"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="20"/>
+      <c r="U42" s="20"/>
+      <c r="V42" s="18"/>
+      <c r="W42" s="18"/>
+      <c r="X42" s="18"/>
+      <c r="Y42" s="18"/>
+      <c r="Z42" s="18"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A43" s="30"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="32"/>
-      <c r="N43" s="32"/>
-      <c r="O43" s="32"/>
-      <c r="P43" s="32"/>
-      <c r="Q43" s="32"/>
-      <c r="R43" s="32"/>
-      <c r="S43" s="32"/>
-      <c r="T43" s="32"/>
-      <c r="U43" s="32"/>
-      <c r="V43" s="30"/>
-      <c r="W43" s="30"/>
-      <c r="X43" s="30"/>
-      <c r="Y43" s="30"/>
-      <c r="Z43" s="30"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="20"/>
+      <c r="U43" s="20"/>
+      <c r="V43" s="18"/>
+      <c r="W43" s="18"/>
+      <c r="X43" s="18"/>
+      <c r="Y43" s="18"/>
+      <c r="Z43" s="18"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A44" s="30"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="32"/>
-      <c r="M44" s="32"/>
-      <c r="N44" s="32"/>
-      <c r="O44" s="32"/>
-      <c r="P44" s="32"/>
-      <c r="Q44" s="32"/>
-      <c r="R44" s="32"/>
-      <c r="S44" s="32"/>
-      <c r="T44" s="32"/>
-      <c r="U44" s="32"/>
-      <c r="V44" s="30"/>
-      <c r="W44" s="30"/>
-      <c r="X44" s="30"/>
-      <c r="Y44" s="30"/>
-      <c r="Z44" s="30"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20"/>
+      <c r="T44" s="20"/>
+      <c r="U44" s="20"/>
+      <c r="V44" s="18"/>
+      <c r="W44" s="18"/>
+      <c r="X44" s="18"/>
+      <c r="Y44" s="18"/>
+      <c r="Z44" s="18"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B45" s="31"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="32"/>
-      <c r="N45" s="32"/>
-      <c r="O45" s="32"/>
-      <c r="P45" s="32"/>
-      <c r="Q45" s="32"/>
-      <c r="R45" s="32"/>
-      <c r="S45" s="32"/>
-      <c r="T45" s="32"/>
-      <c r="U45" s="32"/>
-      <c r="V45" s="30"/>
-      <c r="W45" s="30"/>
-      <c r="X45" s="30"/>
-      <c r="Y45" s="30"/>
-      <c r="Z45" s="30"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="18"/>
+      <c r="W45" s="18"/>
+      <c r="X45" s="18"/>
+      <c r="Y45" s="18"/>
+      <c r="Z45" s="18"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A46" s="30"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="32"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="32"/>
-      <c r="L46" s="32"/>
-      <c r="M46" s="32"/>
-      <c r="N46" s="32"/>
-      <c r="O46" s="32"/>
-      <c r="P46" s="32"/>
-      <c r="Q46" s="32"/>
-      <c r="R46" s="32"/>
-      <c r="S46" s="32"/>
-      <c r="T46" s="32"/>
-      <c r="U46" s="32"/>
-      <c r="V46" s="30"/>
-      <c r="W46" s="30"/>
-      <c r="X46" s="30"/>
-      <c r="Y46" s="30"/>
-      <c r="Z46" s="30"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="20"/>
+      <c r="U46" s="20"/>
+      <c r="V46" s="18"/>
+      <c r="W46" s="18"/>
+      <c r="X46" s="18"/>
+      <c r="Y46" s="18"/>
+      <c r="Z46" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D9:U9"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="D3:U3"/>
+    <mergeCell ref="D6:U6"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D10:U10"/>
+    <mergeCell ref="D18:U18"/>
+    <mergeCell ref="D21:U21"/>
+    <mergeCell ref="D25:U25"/>
+    <mergeCell ref="K20:L20"/>
     <mergeCell ref="P29:Q29"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="D40:U40"/>
@@ -2549,22 +2589,6 @@
     <mergeCell ref="D30:U30"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:U34"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D10:U10"/>
-    <mergeCell ref="D18:U18"/>
-    <mergeCell ref="D21:U21"/>
-    <mergeCell ref="D25:U25"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D9:U9"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="D3:U3"/>
-    <mergeCell ref="D6:U6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2575,7 +2599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="87" workbookViewId="0"/>
+    <sheetView showRuler="0" zoomScale="87" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
